--- a/ra_exploer/examples/VHR_TR2_All.xlsx
+++ b/ra_exploer/examples/VHR_TR2_All.xlsx
@@ -1,19 +1,23 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="153222"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24527"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\hp06316p\技術開發一部&amp;二部\技術開發一部\技術開發三課\個人暫存區\康良豪\RA選擇器\Summary\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\dimsp\Documents\Projects\td_toolkits_reconstruc\ra_exploer\examples\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{736C5081-B7CE-4980-BEAE-6EBED5AC7CEA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19170" windowHeight="7965"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="28110" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="材料資料片 TR2 VHR" sheetId="1" r:id="rId1"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'材料資料片 TR2 VHR'!$A$1:$K$62</definedName>
+  </definedNames>
   <calcPr calcId="152511"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -24,12 +28,12 @@
 </file>
 
 <file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
     <author>作者</author>
   </authors>
   <commentList>
-    <comment ref="D1" authorId="0" shapeId="0">
+    <comment ref="D1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000001000000}">
       <text>
         <r>
           <rPr>
@@ -49,7 +53,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="570" uniqueCount="72">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="434" uniqueCount="72">
   <si>
     <t>LC</t>
     <phoneticPr fontId="4" type="noConversion"/>
@@ -337,7 +341,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
@@ -843,11 +847,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:K79"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:K62"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A43" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="K85" sqref="K85"/>
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="K9" sqref="K9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.25"/>
@@ -2513,17 +2517,17 @@
       <c r="A48" s="7" t="s">
         <v>62</v>
       </c>
-      <c r="B48" s="2" t="s">
-        <v>20</v>
+      <c r="B48" s="21" t="s">
+        <v>43</v>
       </c>
       <c r="C48" s="20" t="s">
-        <v>51</v>
+        <v>59</v>
       </c>
       <c r="D48" s="2" t="s">
-        <v>56</v>
-      </c>
-      <c r="E48" s="2" t="s">
-        <v>71</v>
+        <v>19</v>
+      </c>
+      <c r="E48" s="21">
+        <v>30.5</v>
       </c>
       <c r="F48" s="22">
         <v>1</v>
@@ -2535,30 +2539,30 @@
         <v>60</v>
       </c>
       <c r="I48" s="2" t="s">
-        <v>40</v>
+        <v>52</v>
       </c>
       <c r="J48" s="21" t="s">
-        <v>53</v>
+        <v>41</v>
       </c>
       <c r="K48" s="23" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
     </row>
     <row r="49" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A49" s="7" t="s">
         <v>62</v>
       </c>
-      <c r="B49" s="2" t="s">
-        <v>26</v>
+      <c r="B49" s="21" t="s">
+        <v>43</v>
       </c>
       <c r="C49" s="20" t="s">
-        <v>39</v>
+        <v>59</v>
       </c>
       <c r="D49" s="2" t="s">
-        <v>56</v>
-      </c>
-      <c r="E49" s="2" t="s">
-        <v>71</v>
+        <v>58</v>
+      </c>
+      <c r="E49" s="21">
+        <v>28.9</v>
       </c>
       <c r="F49" s="22">
         <v>1</v>
@@ -2570,13 +2574,13 @@
         <v>60</v>
       </c>
       <c r="I49" s="2" t="s">
-        <v>52</v>
+        <v>40</v>
       </c>
       <c r="J49" s="21" t="s">
-        <v>41</v>
+        <v>53</v>
       </c>
       <c r="K49" s="23" t="s">
-        <v>54</v>
+        <v>44</v>
       </c>
     </row>
     <row r="50" spans="1:11" x14ac:dyDescent="0.25">
@@ -2587,13 +2591,13 @@
         <v>43</v>
       </c>
       <c r="C50" s="20" t="s">
-        <v>39</v>
+        <v>9</v>
       </c>
       <c r="D50" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="E50" s="2" t="s">
-        <v>71</v>
+        <v>16</v>
+      </c>
+      <c r="E50" s="21">
+        <v>29.1</v>
       </c>
       <c r="F50" s="22">
         <v>1</v>
@@ -2608,10 +2612,10 @@
         <v>40</v>
       </c>
       <c r="J50" s="21" t="s">
-        <v>53</v>
+        <v>41</v>
       </c>
       <c r="K50" s="23" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
     </row>
     <row r="51" spans="1:11" x14ac:dyDescent="0.25">
@@ -2619,16 +2623,16 @@
         <v>62</v>
       </c>
       <c r="B51" s="2" t="s">
-        <v>20</v>
+        <v>26</v>
       </c>
       <c r="C51" s="20" t="s">
-        <v>39</v>
+        <v>9</v>
       </c>
       <c r="D51" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="E51" s="2" t="s">
-        <v>71</v>
+        <v>16</v>
+      </c>
+      <c r="E51" s="2">
+        <v>77.599999999999994</v>
       </c>
       <c r="F51" s="22">
         <v>1</v>
@@ -2642,28 +2646,28 @@
       <c r="I51" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="J51" s="21" t="s">
-        <v>41</v>
-      </c>
-      <c r="K51" s="23" t="s">
-        <v>42</v>
+      <c r="J51" s="22" t="s">
+        <v>36</v>
+      </c>
+      <c r="K51" s="24" t="s">
+        <v>45</v>
       </c>
     </row>
     <row r="52" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A52" s="7" t="s">
         <v>62</v>
       </c>
-      <c r="B52" s="2" t="s">
-        <v>26</v>
+      <c r="B52" s="22" t="s">
+        <v>43</v>
       </c>
       <c r="C52" s="20" t="s">
-        <v>39</v>
+        <v>9</v>
       </c>
       <c r="D52" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="E52" s="2" t="s">
-        <v>71</v>
+        <v>16</v>
+      </c>
+      <c r="E52" s="2">
+        <v>78.5</v>
       </c>
       <c r="F52" s="22">
         <v>1</v>
@@ -2677,28 +2681,28 @@
       <c r="I52" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="J52" s="21" t="s">
-        <v>41</v>
-      </c>
-      <c r="K52" s="23" t="s">
-        <v>42</v>
+      <c r="J52" s="22" t="s">
+        <v>36</v>
+      </c>
+      <c r="K52" s="24" t="s">
+        <v>46</v>
       </c>
     </row>
     <row r="53" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A53" s="7" t="s">
         <v>62</v>
       </c>
-      <c r="B53" s="21" t="s">
-        <v>57</v>
+      <c r="B53" s="2" t="s">
+        <v>26</v>
       </c>
       <c r="C53" s="20" t="s">
-        <v>39</v>
+        <v>9</v>
       </c>
       <c r="D53" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="E53" s="2" t="s">
-        <v>71</v>
+      <c r="E53" s="2">
+        <v>81</v>
       </c>
       <c r="F53" s="22">
         <v>1</v>
@@ -2712,28 +2716,28 @@
       <c r="I53" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="J53" s="21" t="s">
-        <v>53</v>
-      </c>
-      <c r="K53" s="23" t="s">
-        <v>54</v>
+      <c r="J53" s="22" t="s">
+        <v>36</v>
+      </c>
+      <c r="K53" s="24" t="s">
+        <v>47</v>
       </c>
     </row>
     <row r="54" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A54" s="7" t="s">
         <v>62</v>
       </c>
-      <c r="B54" s="21" t="s">
-        <v>43</v>
+      <c r="B54" s="2" t="s">
+        <v>26</v>
       </c>
       <c r="C54" s="20" t="s">
-        <v>59</v>
+        <v>9</v>
       </c>
       <c r="D54" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="E54" s="21">
-        <v>30.5</v>
+        <v>16</v>
+      </c>
+      <c r="E54" s="2">
+        <v>79</v>
       </c>
       <c r="F54" s="22">
         <v>1</v>
@@ -2745,30 +2749,30 @@
         <v>60</v>
       </c>
       <c r="I54" s="2" t="s">
-        <v>52</v>
-      </c>
-      <c r="J54" s="21" t="s">
-        <v>41</v>
-      </c>
-      <c r="K54" s="23" t="s">
-        <v>44</v>
+        <v>40</v>
+      </c>
+      <c r="J54" s="22" t="s">
+        <v>36</v>
+      </c>
+      <c r="K54" s="24" t="s">
+        <v>47</v>
       </c>
     </row>
     <row r="55" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A55" s="7" t="s">
         <v>62</v>
       </c>
-      <c r="B55" s="21" t="s">
-        <v>43</v>
+      <c r="B55" s="2" t="s">
+        <v>20</v>
       </c>
       <c r="C55" s="20" t="s">
-        <v>59</v>
+        <v>9</v>
       </c>
       <c r="D55" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="E55" s="2" t="s">
-        <v>71</v>
+        <v>23</v>
+      </c>
+      <c r="E55" s="2">
+        <v>92.56</v>
       </c>
       <c r="F55" s="22">
         <v>1</v>
@@ -2782,28 +2786,28 @@
       <c r="I55" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="J55" s="21" t="s">
-        <v>53</v>
-      </c>
-      <c r="K55" s="23" t="s">
-        <v>44</v>
+      <c r="J55" s="22" t="s">
+        <v>36</v>
+      </c>
+      <c r="K55" s="24" t="s">
+        <v>48</v>
       </c>
     </row>
     <row r="56" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A56" s="7" t="s">
         <v>62</v>
       </c>
-      <c r="B56" s="21" t="s">
-        <v>43</v>
+      <c r="B56" s="2" t="s">
+        <v>20</v>
       </c>
       <c r="C56" s="20" t="s">
-        <v>59</v>
+        <v>9</v>
       </c>
       <c r="D56" s="2" t="s">
-        <v>58</v>
-      </c>
-      <c r="E56" s="21">
-        <v>28.9</v>
+        <v>16</v>
+      </c>
+      <c r="E56" s="2">
+        <v>92.6</v>
       </c>
       <c r="F56" s="22">
         <v>1</v>
@@ -2817,28 +2821,28 @@
       <c r="I56" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="J56" s="21" t="s">
-        <v>53</v>
-      </c>
-      <c r="K56" s="23" t="s">
-        <v>44</v>
+      <c r="J56" s="22" t="s">
+        <v>36</v>
+      </c>
+      <c r="K56" s="24" t="s">
+        <v>48</v>
       </c>
     </row>
     <row r="57" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A57" s="7" t="s">
         <v>62</v>
       </c>
-      <c r="B57" s="21" t="s">
+      <c r="B57" s="22" t="s">
         <v>43</v>
       </c>
       <c r="C57" s="20" t="s">
-        <v>9</v>
+        <v>39</v>
       </c>
       <c r="D57" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="E57" s="2" t="s">
-        <v>71</v>
+      <c r="E57" s="22">
+        <v>79.900000000000006</v>
       </c>
       <c r="F57" s="22">
         <v>1</v>
@@ -2852,63 +2856,63 @@
       <c r="I57" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="J57" s="21" t="s">
-        <v>53</v>
-      </c>
-      <c r="K57" s="23" t="s">
-        <v>44</v>
+      <c r="J57" s="22" t="s">
+        <v>36</v>
+      </c>
+      <c r="K57" s="24" t="s">
+        <v>49</v>
       </c>
     </row>
     <row r="58" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A58" s="7" t="s">
         <v>62</v>
       </c>
-      <c r="B58" s="21" t="s">
-        <v>43</v>
-      </c>
-      <c r="C58" s="20" t="s">
-        <v>9</v>
-      </c>
-      <c r="D58" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="E58" s="21">
-        <v>29.1</v>
-      </c>
-      <c r="F58" s="22">
-        <v>1</v>
-      </c>
-      <c r="G58" s="22">
-        <v>0.6</v>
-      </c>
-      <c r="H58" s="22">
-        <v>60</v>
-      </c>
-      <c r="I58" s="2" t="s">
+      <c r="B58" s="25" t="s">
+        <v>26</v>
+      </c>
+      <c r="C58" s="26" t="s">
+        <v>39</v>
+      </c>
+      <c r="D58" s="25" t="s">
+        <v>23</v>
+      </c>
+      <c r="E58" s="27">
+        <v>73.599999999999994</v>
+      </c>
+      <c r="F58" s="27">
+        <v>1</v>
+      </c>
+      <c r="G58" s="27">
+        <v>0.6</v>
+      </c>
+      <c r="H58" s="27">
+        <v>60</v>
+      </c>
+      <c r="I58" s="25" t="s">
         <v>40</v>
       </c>
-      <c r="J58" s="21" t="s">
-        <v>41</v>
-      </c>
-      <c r="K58" s="23" t="s">
-        <v>44</v>
+      <c r="J58" s="27" t="s">
+        <v>36</v>
+      </c>
+      <c r="K58" s="28" t="s">
+        <v>49</v>
       </c>
     </row>
     <row r="59" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A59" s="7" t="s">
         <v>62</v>
       </c>
-      <c r="B59" s="21" t="s">
-        <v>43</v>
-      </c>
-      <c r="C59" s="20" t="s">
-        <v>9</v>
-      </c>
-      <c r="D59" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="E59" s="2" t="s">
-        <v>71</v>
+      <c r="B59" s="29" t="s">
+        <v>64</v>
+      </c>
+      <c r="C59" s="29" t="s">
+        <v>69</v>
+      </c>
+      <c r="D59" s="29" t="s">
+        <v>66</v>
+      </c>
+      <c r="E59" s="30">
+        <v>0.91900000000000004</v>
       </c>
       <c r="F59" s="22">
         <v>1</v>
@@ -2922,28 +2926,28 @@
       <c r="I59" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="J59" s="21" t="s">
-        <v>41</v>
-      </c>
-      <c r="K59" s="23" t="s">
-        <v>44</v>
+      <c r="J59" s="22" t="s">
+        <v>67</v>
+      </c>
+      <c r="K59" s="32">
+        <v>210111</v>
       </c>
     </row>
     <row r="60" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A60" s="7" t="s">
         <v>62</v>
       </c>
-      <c r="B60" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="C60" s="20" t="s">
-        <v>9</v>
-      </c>
-      <c r="D60" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="E60" s="2">
-        <v>77.599999999999994</v>
+      <c r="B60" s="29" t="s">
+        <v>64</v>
+      </c>
+      <c r="C60" s="29" t="s">
+        <v>70</v>
+      </c>
+      <c r="D60" s="29" t="s">
+        <v>66</v>
+      </c>
+      <c r="E60" s="31">
+        <v>0.89700000000000002</v>
       </c>
       <c r="F60" s="22">
         <v>1</v>
@@ -2957,28 +2961,28 @@
       <c r="I60" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="J60" s="22" t="s">
-        <v>36</v>
-      </c>
-      <c r="K60" s="24" t="s">
-        <v>45</v>
+      <c r="J60" s="29" t="s">
+        <v>67</v>
+      </c>
+      <c r="K60" s="32">
+        <v>210111</v>
       </c>
     </row>
     <row r="61" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A61" s="7" t="s">
         <v>62</v>
       </c>
-      <c r="B61" s="22" t="s">
-        <v>43</v>
-      </c>
-      <c r="C61" s="20" t="s">
-        <v>9</v>
-      </c>
-      <c r="D61" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="E61" s="2">
-        <v>78.5</v>
+      <c r="B61" s="29" t="s">
+        <v>65</v>
+      </c>
+      <c r="C61" s="29" t="s">
+        <v>68</v>
+      </c>
+      <c r="D61" s="29" t="s">
+        <v>66</v>
+      </c>
+      <c r="E61" s="31">
+        <v>0.96799999999999997</v>
       </c>
       <c r="F61" s="22">
         <v>1</v>
@@ -2992,28 +2996,28 @@
       <c r="I61" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="J61" s="22" t="s">
-        <v>36</v>
-      </c>
-      <c r="K61" s="24" t="s">
-        <v>46</v>
+      <c r="J61" s="29" t="s">
+        <v>67</v>
+      </c>
+      <c r="K61" s="32">
+        <v>210111</v>
       </c>
     </row>
     <row r="62" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A62" s="7" t="s">
         <v>62</v>
       </c>
-      <c r="B62" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="C62" s="20" t="s">
-        <v>9</v>
-      </c>
-      <c r="D62" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="E62" s="2" t="s">
-        <v>71</v>
+      <c r="B62" s="29" t="s">
+        <v>65</v>
+      </c>
+      <c r="C62" s="29" t="s">
+        <v>69</v>
+      </c>
+      <c r="D62" s="29" t="s">
+        <v>66</v>
+      </c>
+      <c r="E62" s="31">
+        <v>0.96799999999999997</v>
       </c>
       <c r="F62" s="22">
         <v>1</v>
@@ -3027,607 +3031,15 @@
       <c r="I62" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="J62" s="22" t="s">
-        <v>36</v>
-      </c>
-      <c r="K62" s="24" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="63" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A63" s="7" t="s">
-        <v>62</v>
-      </c>
-      <c r="B63" s="22" t="s">
-        <v>43</v>
-      </c>
-      <c r="C63" s="20" t="s">
-        <v>9</v>
-      </c>
-      <c r="D63" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="E63" s="2" t="s">
-        <v>71</v>
-      </c>
-      <c r="F63" s="22">
-        <v>1</v>
-      </c>
-      <c r="G63" s="22">
-        <v>0.6</v>
-      </c>
-      <c r="H63" s="22">
-        <v>60</v>
-      </c>
-      <c r="I63" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="J63" s="22" t="s">
-        <v>36</v>
-      </c>
-      <c r="K63" s="24" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="64" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A64" s="7" t="s">
-        <v>62</v>
-      </c>
-      <c r="B64" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="C64" s="20" t="s">
-        <v>9</v>
-      </c>
-      <c r="D64" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="E64" s="2" t="s">
-        <v>71</v>
-      </c>
-      <c r="F64" s="22">
-        <v>1</v>
-      </c>
-      <c r="G64" s="22">
-        <v>0.6</v>
-      </c>
-      <c r="H64" s="22">
-        <v>60</v>
-      </c>
-      <c r="I64" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="J64" s="22" t="s">
-        <v>36</v>
-      </c>
-      <c r="K64" s="24" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="65" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A65" s="7" t="s">
-        <v>62</v>
-      </c>
-      <c r="B65" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="C65" s="20" t="s">
-        <v>9</v>
-      </c>
-      <c r="D65" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="E65" s="2" t="s">
-        <v>71</v>
-      </c>
-      <c r="F65" s="22">
-        <v>1</v>
-      </c>
-      <c r="G65" s="22">
-        <v>0.6</v>
-      </c>
-      <c r="H65" s="22">
-        <v>60</v>
-      </c>
-      <c r="I65" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="J65" s="22" t="s">
-        <v>36</v>
-      </c>
-      <c r="K65" s="24" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="66" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A66" s="7" t="s">
-        <v>62</v>
-      </c>
-      <c r="B66" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="C66" s="20" t="s">
-        <v>9</v>
-      </c>
-      <c r="D66" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="E66" s="2">
-        <v>81</v>
-      </c>
-      <c r="F66" s="22">
-        <v>1</v>
-      </c>
-      <c r="G66" s="22">
-        <v>0.6</v>
-      </c>
-      <c r="H66" s="22">
-        <v>60</v>
-      </c>
-      <c r="I66" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="J66" s="22" t="s">
-        <v>36</v>
-      </c>
-      <c r="K66" s="24" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="67" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A67" s="7" t="s">
-        <v>62</v>
-      </c>
-      <c r="B67" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="C67" s="20" t="s">
-        <v>9</v>
-      </c>
-      <c r="D67" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="E67" s="2">
-        <v>79</v>
-      </c>
-      <c r="F67" s="22">
-        <v>1</v>
-      </c>
-      <c r="G67" s="22">
-        <v>0.6</v>
-      </c>
-      <c r="H67" s="22">
-        <v>60</v>
-      </c>
-      <c r="I67" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="J67" s="22" t="s">
-        <v>36</v>
-      </c>
-      <c r="K67" s="24" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="68" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A68" s="7" t="s">
-        <v>62</v>
-      </c>
-      <c r="B68" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="C68" s="20" t="s">
-        <v>9</v>
-      </c>
-      <c r="D68" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="E68" s="2" t="s">
-        <v>71</v>
-      </c>
-      <c r="F68" s="22">
-        <v>1</v>
-      </c>
-      <c r="G68" s="22">
-        <v>0.6</v>
-      </c>
-      <c r="H68" s="22">
-        <v>60</v>
-      </c>
-      <c r="I68" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="J68" s="22" t="s">
-        <v>36</v>
-      </c>
-      <c r="K68" s="24" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="69" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A69" s="7" t="s">
-        <v>62</v>
-      </c>
-      <c r="B69" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="C69" s="20" t="s">
-        <v>9</v>
-      </c>
-      <c r="D69" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="E69" s="2" t="s">
-        <v>71</v>
-      </c>
-      <c r="F69" s="22">
-        <v>1</v>
-      </c>
-      <c r="G69" s="22">
-        <v>0.6</v>
-      </c>
-      <c r="H69" s="22">
-        <v>60</v>
-      </c>
-      <c r="I69" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="J69" s="22" t="s">
-        <v>36</v>
-      </c>
-      <c r="K69" s="24" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="70" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A70" s="7" t="s">
-        <v>62</v>
-      </c>
-      <c r="B70" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="C70" s="20" t="s">
-        <v>9</v>
-      </c>
-      <c r="D70" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="E70" s="2">
-        <v>92.56</v>
-      </c>
-      <c r="F70" s="22">
-        <v>1</v>
-      </c>
-      <c r="G70" s="22">
-        <v>0.6</v>
-      </c>
-      <c r="H70" s="22">
-        <v>60</v>
-      </c>
-      <c r="I70" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="J70" s="22" t="s">
-        <v>36</v>
-      </c>
-      <c r="K70" s="24" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="71" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A71" s="7" t="s">
-        <v>62</v>
-      </c>
-      <c r="B71" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="C71" s="20" t="s">
-        <v>9</v>
-      </c>
-      <c r="D71" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="E71" s="2">
-        <v>92.6</v>
-      </c>
-      <c r="F71" s="22">
-        <v>1</v>
-      </c>
-      <c r="G71" s="22">
-        <v>0.6</v>
-      </c>
-      <c r="H71" s="22">
-        <v>60</v>
-      </c>
-      <c r="I71" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="J71" s="22" t="s">
-        <v>36</v>
-      </c>
-      <c r="K71" s="24" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="72" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A72" s="7" t="s">
-        <v>62</v>
-      </c>
-      <c r="B72" s="22" t="s">
-        <v>43</v>
-      </c>
-      <c r="C72" s="20" t="s">
-        <v>39</v>
-      </c>
-      <c r="D72" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="E72" s="2" t="s">
-        <v>71</v>
-      </c>
-      <c r="F72" s="22">
-        <v>1</v>
-      </c>
-      <c r="G72" s="22">
-        <v>0.6</v>
-      </c>
-      <c r="H72" s="22">
-        <v>60</v>
-      </c>
-      <c r="I72" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="J72" s="22" t="s">
-        <v>36</v>
-      </c>
-      <c r="K72" s="24" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="73" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A73" s="7" t="s">
-        <v>62</v>
-      </c>
-      <c r="B73" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="C73" s="20" t="s">
-        <v>39</v>
-      </c>
-      <c r="D73" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="E73" s="2" t="s">
-        <v>71</v>
-      </c>
-      <c r="F73" s="22">
-        <v>1</v>
-      </c>
-      <c r="G73" s="22">
-        <v>0.6</v>
-      </c>
-      <c r="H73" s="22">
-        <v>60</v>
-      </c>
-      <c r="I73" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="J73" s="22" t="s">
-        <v>36</v>
-      </c>
-      <c r="K73" s="24" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="74" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A74" s="7" t="s">
-        <v>62</v>
-      </c>
-      <c r="B74" s="22" t="s">
-        <v>43</v>
-      </c>
-      <c r="C74" s="20" t="s">
-        <v>39</v>
-      </c>
-      <c r="D74" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="E74" s="22">
-        <v>79.900000000000006</v>
-      </c>
-      <c r="F74" s="22">
-        <v>1</v>
-      </c>
-      <c r="G74" s="22">
-        <v>0.6</v>
-      </c>
-      <c r="H74" s="22">
-        <v>60</v>
-      </c>
-      <c r="I74" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="J74" s="22" t="s">
-        <v>36</v>
-      </c>
-      <c r="K74" s="24" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="75" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A75" s="7" t="s">
-        <v>62</v>
-      </c>
-      <c r="B75" s="25" t="s">
-        <v>26</v>
-      </c>
-      <c r="C75" s="26" t="s">
-        <v>39</v>
-      </c>
-      <c r="D75" s="25" t="s">
-        <v>23</v>
-      </c>
-      <c r="E75" s="27">
-        <v>73.599999999999994</v>
-      </c>
-      <c r="F75" s="27">
-        <v>1</v>
-      </c>
-      <c r="G75" s="27">
-        <v>0.6</v>
-      </c>
-      <c r="H75" s="27">
-        <v>60</v>
-      </c>
-      <c r="I75" s="25" t="s">
-        <v>40</v>
-      </c>
-      <c r="J75" s="27" t="s">
-        <v>36</v>
-      </c>
-      <c r="K75" s="28" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="76" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A76" s="7" t="s">
-        <v>62</v>
-      </c>
-      <c r="B76" s="29" t="s">
-        <v>64</v>
-      </c>
-      <c r="C76" s="29" t="s">
-        <v>69</v>
-      </c>
-      <c r="D76" s="29" t="s">
-        <v>66</v>
-      </c>
-      <c r="E76" s="30">
-        <v>0.91900000000000004</v>
-      </c>
-      <c r="F76" s="22">
-        <v>1</v>
-      </c>
-      <c r="G76" s="22">
-        <v>0.6</v>
-      </c>
-      <c r="H76" s="22">
-        <v>60</v>
-      </c>
-      <c r="I76" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="J76" s="22" t="s">
+      <c r="J62" s="29" t="s">
         <v>67</v>
       </c>
-      <c r="K76" s="24"/>
-    </row>
-    <row r="77" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A77" s="7" t="s">
-        <v>62</v>
-      </c>
-      <c r="B77" s="29" t="s">
-        <v>64</v>
-      </c>
-      <c r="C77" s="29" t="s">
-        <v>70</v>
-      </c>
-      <c r="D77" s="29" t="s">
-        <v>66</v>
-      </c>
-      <c r="E77" s="31">
-        <v>0.89700000000000002</v>
-      </c>
-      <c r="F77" s="22">
-        <v>1</v>
-      </c>
-      <c r="G77" s="22">
-        <v>0.6</v>
-      </c>
-      <c r="H77" s="22">
-        <v>60</v>
-      </c>
-      <c r="I77" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="J77" s="29" t="s">
-        <v>67</v>
-      </c>
-      <c r="K77" s="32">
+      <c r="K62" s="32">
         <v>210111</v>
       </c>
     </row>
-    <row r="78" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A78" s="7" t="s">
-        <v>62</v>
-      </c>
-      <c r="B78" s="29" t="s">
-        <v>65</v>
-      </c>
-      <c r="C78" s="29" t="s">
-        <v>68</v>
-      </c>
-      <c r="D78" s="29" t="s">
-        <v>66</v>
-      </c>
-      <c r="E78" s="31">
-        <v>0.96799999999999997</v>
-      </c>
-      <c r="F78" s="22">
-        <v>1</v>
-      </c>
-      <c r="G78" s="22">
-        <v>0.6</v>
-      </c>
-      <c r="H78" s="22">
-        <v>60</v>
-      </c>
-      <c r="I78" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="J78" s="29" t="s">
-        <v>67</v>
-      </c>
-      <c r="K78" s="32">
-        <v>210111</v>
-      </c>
-    </row>
-    <row r="79" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A79" s="7" t="s">
-        <v>62</v>
-      </c>
-      <c r="B79" s="29" t="s">
-        <v>65</v>
-      </c>
-      <c r="C79" s="29" t="s">
-        <v>69</v>
-      </c>
-      <c r="D79" s="29" t="s">
-        <v>66</v>
-      </c>
-      <c r="E79" s="31">
-        <v>0.96799999999999997</v>
-      </c>
-      <c r="F79" s="22">
-        <v>1</v>
-      </c>
-      <c r="G79" s="22">
-        <v>0.6</v>
-      </c>
-      <c r="H79" s="22">
-        <v>60</v>
-      </c>
-      <c r="I79" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="J79" s="29" t="s">
-        <v>67</v>
-      </c>
-      <c r="K79" s="32">
-        <v>210111</v>
-      </c>
-    </row>
   </sheetData>
+  <autoFilter ref="A1:K62" xr:uid="{00000000-0001-0000-0000-000000000000}"/>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>

--- a/ra_exploer/examples/VHR_TR2_All.xlsx
+++ b/ra_exploer/examples/VHR_TR2_All.xlsx
@@ -1,16 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24527"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="6" rupBuild="4507"/>
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\dimsp\Documents\Projects\td_toolkits_reconstruc\ra_exploer\examples\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{736C5081-B7CE-4980-BEAE-6EBED5AC7CEA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="28110" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="20730" windowHeight="11760"/>
   </bookViews>
   <sheets>
     <sheet name="材料資料片 TR2 VHR" sheetId="1" r:id="rId1"/>
@@ -18,9 +12,9 @@
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'材料資料片 TR2 VHR'!$A$1:$K$62</definedName>
   </definedNames>
-  <calcPr calcId="152511"/>
-  <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+  <calcPr calcId="125725"/>
+  <extLst xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main">
+    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
   </extLst>
@@ -28,12 +22,12 @@
 </file>
 
 <file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <authors>
     <author>作者</author>
   </authors>
   <commentList>
-    <comment ref="D1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000001000000}">
+    <comment ref="D1" authorId="0">
       <text>
         <r>
           <rPr>
@@ -341,12 +335,12 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="8" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <fonts count="8">
     <font>
       <sz val="12"/>
       <color theme="1"/>
-      <name val="新細明體"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -354,14 +348,14 @@
       <b/>
       <sz val="12"/>
       <color theme="1"/>
-      <name val="新細明體"/>
+      <name val="Calibri"/>
       <family val="1"/>
       <charset val="136"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="9"/>
-      <name val="新細明體"/>
+      <name val="Calibri"/>
       <family val="3"/>
       <charset val="136"/>
       <scheme val="minor"/>
@@ -374,7 +368,7 @@
     </font>
     <font>
       <sz val="9"/>
-      <name val="新細明體"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <charset val="136"/>
       <scheme val="minor"/>
@@ -389,7 +383,7 @@
     <font>
       <sz val="12"/>
       <color theme="1"/>
-      <name val="新細明體"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -558,14 +552,14 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="2" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -628,7 +622,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:latin typeface="Calibri Light"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -663,7 +657,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -840,21 +834,21 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:K62"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="K9" sqref="K9"/>
+    <sheetView tabSelected="1" topLeftCell="A40" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="G52" sqref="G52"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15.75"/>
   <cols>
     <col min="1" max="1" width="10.625" style="12" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="12.875" style="12" bestFit="1" customWidth="1"/>
@@ -868,7 +862,7 @@
     <col min="12" max="16384" width="9" style="12"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" s="7" customFormat="1" ht="33" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:11" s="7" customFormat="1" ht="31.5">
       <c r="A1" s="1" t="s">
         <v>63</v>
       </c>
@@ -903,7 +897,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:11" s="7" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:11" s="7" customFormat="1">
       <c r="A2" s="7" t="s">
         <v>62</v>
       </c>
@@ -938,7 +932,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="3" spans="1:11" s="7" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:11" s="7" customFormat="1">
       <c r="A3" s="7" t="s">
         <v>62</v>
       </c>
@@ -973,7 +967,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="4" spans="1:11" s="7" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:11" s="7" customFormat="1">
       <c r="A4" s="7" t="s">
         <v>62</v>
       </c>
@@ -1008,7 +1002,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="5" spans="1:11" s="7" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:11" s="7" customFormat="1">
       <c r="A5" s="7" t="s">
         <v>62</v>
       </c>
@@ -1043,7 +1037,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:11">
       <c r="A6" s="7" t="s">
         <v>62</v>
       </c>
@@ -1078,7 +1072,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:11">
       <c r="A7" s="7" t="s">
         <v>62</v>
       </c>
@@ -1113,7 +1107,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:11">
       <c r="A8" s="7" t="s">
         <v>62</v>
       </c>
@@ -1148,7 +1142,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:11">
       <c r="A9" s="7" t="s">
         <v>62</v>
       </c>
@@ -1183,7 +1177,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="10" spans="1:11" s="14" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:11" s="14" customFormat="1">
       <c r="A10" s="7" t="s">
         <v>62</v>
       </c>
@@ -1218,7 +1212,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="11" spans="1:11" s="14" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:11" s="14" customFormat="1">
       <c r="A11" s="7" t="s">
         <v>62</v>
       </c>
@@ -1253,7 +1247,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="12" spans="1:11" s="14" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:11" s="14" customFormat="1">
       <c r="A12" s="7" t="s">
         <v>62</v>
       </c>
@@ -1288,7 +1282,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="13" spans="1:11" s="14" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:11" s="14" customFormat="1">
       <c r="A13" s="7" t="s">
         <v>62</v>
       </c>
@@ -1323,7 +1317,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="14" spans="1:11" s="14" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:11" s="14" customFormat="1">
       <c r="A14" s="7" t="s">
         <v>62</v>
       </c>
@@ -1358,7 +1352,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="15" spans="1:11" s="14" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:11" s="14" customFormat="1">
       <c r="A15" s="7" t="s">
         <v>62</v>
       </c>
@@ -1393,7 +1387,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="16" spans="1:11" s="14" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:11" s="14" customFormat="1">
       <c r="A16" s="7" t="s">
         <v>62</v>
       </c>
@@ -1428,7 +1422,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="17" spans="1:11" s="14" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:11" s="14" customFormat="1">
       <c r="A17" s="7" t="s">
         <v>62</v>
       </c>
@@ -1463,7 +1457,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="18" spans="1:11" s="14" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:11" s="14" customFormat="1">
       <c r="A18" s="7" t="s">
         <v>62</v>
       </c>
@@ -1498,7 +1492,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="19" spans="1:11" s="14" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:11" s="14" customFormat="1">
       <c r="A19" s="7" t="s">
         <v>62</v>
       </c>
@@ -1533,7 +1527,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:11">
       <c r="A20" s="7" t="s">
         <v>62</v>
       </c>
@@ -1568,7 +1562,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="21" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:11">
       <c r="A21" s="7" t="s">
         <v>62</v>
       </c>
@@ -1603,7 +1597,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="22" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:11">
       <c r="A22" s="7" t="s">
         <v>62</v>
       </c>
@@ -1638,7 +1632,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="23" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:11">
       <c r="A23" s="7" t="s">
         <v>62</v>
       </c>
@@ -1673,7 +1667,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="24" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:11">
       <c r="A24" s="7" t="s">
         <v>62</v>
       </c>
@@ -1708,7 +1702,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="25" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:11">
       <c r="A25" s="7" t="s">
         <v>62</v>
       </c>
@@ -1743,7 +1737,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="26" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:11">
       <c r="A26" s="7" t="s">
         <v>62</v>
       </c>
@@ -1778,7 +1772,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="27" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:11">
       <c r="A27" s="7" t="s">
         <v>62</v>
       </c>
@@ -1813,7 +1807,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="28" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:11">
       <c r="A28" s="7" t="s">
         <v>62</v>
       </c>
@@ -1848,7 +1842,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="29" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:11">
       <c r="A29" s="7" t="s">
         <v>62</v>
       </c>
@@ -1883,7 +1877,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="30" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:11">
       <c r="A30" s="7" t="s">
         <v>62</v>
       </c>
@@ -1918,7 +1912,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="31" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:11">
       <c r="A31" s="7" t="s">
         <v>62</v>
       </c>
@@ -1953,7 +1947,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="32" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:11">
       <c r="A32" s="7" t="s">
         <v>62</v>
       </c>
@@ -1988,7 +1982,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="33" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:11">
       <c r="A33" s="7" t="s">
         <v>62</v>
       </c>
@@ -2023,7 +2017,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="34" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:11">
       <c r="A34" s="7" t="s">
         <v>62</v>
       </c>
@@ -2058,7 +2052,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="35" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:11">
       <c r="A35" s="7" t="s">
         <v>62</v>
       </c>
@@ -2093,7 +2087,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="36" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:11">
       <c r="A36" s="7" t="s">
         <v>62</v>
       </c>
@@ -2128,7 +2122,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="37" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:11">
       <c r="A37" s="7" t="s">
         <v>62</v>
       </c>
@@ -2163,7 +2157,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="38" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:11">
       <c r="A38" s="7" t="s">
         <v>62</v>
       </c>
@@ -2198,7 +2192,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="39" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:11">
       <c r="A39" s="7" t="s">
         <v>62</v>
       </c>
@@ -2233,7 +2227,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="40" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:11">
       <c r="A40" s="7" t="s">
         <v>62</v>
       </c>
@@ -2268,7 +2262,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="41" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:11">
       <c r="A41" s="7" t="s">
         <v>62</v>
       </c>
@@ -2303,7 +2297,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="42" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:11">
       <c r="A42" s="7" t="s">
         <v>62</v>
       </c>
@@ -2338,7 +2332,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="43" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:11">
       <c r="A43" s="7" t="s">
         <v>62</v>
       </c>
@@ -2373,7 +2367,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="44" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:11">
       <c r="A44" s="7" t="s">
         <v>62</v>
       </c>
@@ -2408,7 +2402,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="45" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:11">
       <c r="A45" s="7" t="s">
         <v>62</v>
       </c>
@@ -2443,7 +2437,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="46" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:11">
       <c r="A46" s="7" t="s">
         <v>62</v>
       </c>
@@ -2478,7 +2472,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="47" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:11">
       <c r="A47" s="7" t="s">
         <v>62</v>
       </c>
@@ -2513,7 +2507,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="48" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:11">
       <c r="A48" s="7" t="s">
         <v>62</v>
       </c>
@@ -2548,7 +2542,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="49" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:11">
       <c r="A49" s="7" t="s">
         <v>62</v>
       </c>
@@ -2583,7 +2577,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="50" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:11">
       <c r="A50" s="7" t="s">
         <v>62</v>
       </c>
@@ -2618,7 +2612,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="51" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:11">
       <c r="A51" s="7" t="s">
         <v>62</v>
       </c>
@@ -2653,7 +2647,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="52" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:11">
       <c r="A52" s="7" t="s">
         <v>62</v>
       </c>
@@ -2688,7 +2682,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="53" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:11">
       <c r="A53" s="7" t="s">
         <v>62</v>
       </c>
@@ -2723,7 +2717,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="54" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:11">
       <c r="A54" s="7" t="s">
         <v>62</v>
       </c>
@@ -2758,7 +2752,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="55" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:11">
       <c r="A55" s="7" t="s">
         <v>62</v>
       </c>
@@ -2793,7 +2787,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="56" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:11">
       <c r="A56" s="7" t="s">
         <v>62</v>
       </c>
@@ -2828,7 +2822,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="57" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:11">
       <c r="A57" s="7" t="s">
         <v>62</v>
       </c>
@@ -2863,7 +2857,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="58" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:11">
       <c r="A58" s="7" t="s">
         <v>62</v>
       </c>
@@ -2898,7 +2892,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="59" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:11">
       <c r="A59" s="7" t="s">
         <v>62</v>
       </c>
@@ -2911,8 +2905,8 @@
       <c r="D59" s="29" t="s">
         <v>66</v>
       </c>
-      <c r="E59" s="30">
-        <v>0.91900000000000004</v>
+      <c r="E59" s="31">
+        <v>91.9</v>
       </c>
       <c r="F59" s="22">
         <v>1</v>
@@ -2929,11 +2923,11 @@
       <c r="J59" s="22" t="s">
         <v>67</v>
       </c>
-      <c r="K59" s="32">
+      <c r="K59" s="30">
         <v>210111</v>
       </c>
     </row>
-    <row r="60" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:11">
       <c r="A60" s="7" t="s">
         <v>62</v>
       </c>
@@ -2946,8 +2940,8 @@
       <c r="D60" s="29" t="s">
         <v>66</v>
       </c>
-      <c r="E60" s="31">
-        <v>0.89700000000000002</v>
+      <c r="E60" s="32">
+        <v>89.7</v>
       </c>
       <c r="F60" s="22">
         <v>1</v>
@@ -2964,11 +2958,11 @@
       <c r="J60" s="29" t="s">
         <v>67</v>
       </c>
-      <c r="K60" s="32">
+      <c r="K60" s="30">
         <v>210111</v>
       </c>
     </row>
-    <row r="61" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:11">
       <c r="A61" s="7" t="s">
         <v>62</v>
       </c>
@@ -2981,8 +2975,8 @@
       <c r="D61" s="29" t="s">
         <v>66</v>
       </c>
-      <c r="E61" s="31">
-        <v>0.96799999999999997</v>
+      <c r="E61" s="32">
+        <v>96.8</v>
       </c>
       <c r="F61" s="22">
         <v>1</v>
@@ -2999,11 +2993,11 @@
       <c r="J61" s="29" t="s">
         <v>67</v>
       </c>
-      <c r="K61" s="32">
+      <c r="K61" s="30">
         <v>210111</v>
       </c>
     </row>
-    <row r="62" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:11">
       <c r="A62" s="7" t="s">
         <v>62</v>
       </c>
@@ -3016,8 +3010,8 @@
       <c r="D62" s="29" t="s">
         <v>66</v>
       </c>
-      <c r="E62" s="31">
-        <v>0.96799999999999997</v>
+      <c r="E62" s="32">
+        <v>96.8</v>
       </c>
       <c r="F62" s="22">
         <v>1</v>
@@ -3034,12 +3028,12 @@
       <c r="J62" s="29" t="s">
         <v>67</v>
       </c>
-      <c r="K62" s="32">
+      <c r="K62" s="30">
         <v>210111</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:K62" xr:uid="{00000000-0001-0000-0000-000000000000}"/>
+  <autoFilter ref="A1:K62"/>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
